--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H2">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I2">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J2">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>0.8912628391996996</v>
+        <v>0.9905558418562501</v>
       </c>
       <c r="R2">
-        <v>0.8912628391996996</v>
+        <v>3.962223367425</v>
       </c>
       <c r="S2">
-        <v>0.141320026549582</v>
+        <v>0.1158110337562545</v>
       </c>
       <c r="T2">
-        <v>0.141320026549582</v>
+        <v>0.08345337794932055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H3">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I3">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J3">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>0.3775393930606702</v>
+        <v>0.5569446253700001</v>
       </c>
       <c r="R3">
-        <v>0.3775393930606702</v>
+        <v>3.341667752220001</v>
       </c>
       <c r="S3">
-        <v>0.05986323529291937</v>
+        <v>0.06511529192359243</v>
       </c>
       <c r="T3">
-        <v>0.05986323529291937</v>
+        <v>0.07038307436168308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H4">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I4">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J4">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>0.1321848700044818</v>
+        <v>0.1461390684625</v>
       </c>
       <c r="R4">
-        <v>0.1321848700044818</v>
+        <v>0.8768344107750002</v>
       </c>
       <c r="S4">
-        <v>0.02095943925504653</v>
+        <v>0.01708587832777051</v>
       </c>
       <c r="T4">
-        <v>0.02095943925504653</v>
+        <v>0.01846811416109821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H5">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I5">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J5">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>0.3518054900889758</v>
+        <v>0.3825883579175</v>
       </c>
       <c r="R5">
-        <v>0.3518054900889758</v>
+        <v>2.295530147505</v>
       </c>
       <c r="S5">
-        <v>0.05578282748140355</v>
+        <v>0.04473039414971575</v>
       </c>
       <c r="T5">
-        <v>0.05578282748140355</v>
+        <v>0.04834905234489421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H6">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I6">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J6">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>0.2555901335126524</v>
+        <v>0.27253773584</v>
       </c>
       <c r="R6">
-        <v>0.2555901335126524</v>
+        <v>1.63522641504</v>
       </c>
       <c r="S6">
-        <v>0.04052677040395045</v>
+        <v>0.03186380372667554</v>
       </c>
       <c r="T6">
-        <v>0.04052677040395045</v>
+        <v>0.03444156358497594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.29203280026631</v>
+        <v>1.3638525</v>
       </c>
       <c r="H7">
-        <v>1.29203280026631</v>
+        <v>2.727705</v>
       </c>
       <c r="I7">
-        <v>0.4590094082641376</v>
+        <v>0.3922705429335346</v>
       </c>
       <c r="J7">
-        <v>0.4590094082641376</v>
+        <v>0.3398839086191571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>0.8864513497932621</v>
+        <v>1.006405853685</v>
       </c>
       <c r="R7">
-        <v>0.8864513497932621</v>
+        <v>4.025623414740001</v>
       </c>
       <c r="S7">
-        <v>0.1405571092812357</v>
+        <v>0.1176641410495259</v>
       </c>
       <c r="T7">
-        <v>0.1405571092812357</v>
+        <v>0.08478872621718513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H8">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I8">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J8">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>0.3392546497993938</v>
+        <v>0.36419792154</v>
       </c>
       <c r="R8">
-        <v>0.3392546497993938</v>
+        <v>2.18518752924</v>
       </c>
       <c r="S8">
-        <v>0.0537927466601994</v>
+        <v>0.04258027261379533</v>
       </c>
       <c r="T8">
-        <v>0.0537927466601994</v>
+        <v>0.04602498745201284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H9">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I9">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J9">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>0.1437084426108052</v>
+        <v>0.2047719738773333</v>
       </c>
       <c r="R9">
-        <v>0.1437084426108052</v>
+        <v>1.842947764896</v>
       </c>
       <c r="S9">
-        <v>0.02278663490939915</v>
+        <v>0.02394095615508391</v>
       </c>
       <c r="T9">
-        <v>0.02278663490939915</v>
+        <v>0.03881664462159646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H10">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I10">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J10">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>0.05031549595674424</v>
+        <v>0.05373098894666668</v>
       </c>
       <c r="R10">
-        <v>0.05031549595674424</v>
+        <v>0.4835789005200001</v>
       </c>
       <c r="S10">
-        <v>0.007978103553433643</v>
+        <v>0.006281969286050996</v>
       </c>
       <c r="T10">
-        <v>0.007978103553433643</v>
+        <v>0.01018526443642664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H11">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I11">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J11">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>0.1339129638175089</v>
+        <v>0.1406663601093333</v>
       </c>
       <c r="R11">
-        <v>0.1339129638175089</v>
+        <v>1.265997240984</v>
       </c>
       <c r="S11">
-        <v>0.02123344850663436</v>
+        <v>0.01644603553946388</v>
       </c>
       <c r="T11">
-        <v>0.02123344850663436</v>
+        <v>0.0266647627953637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H12">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I12">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J12">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>0.0972890795210038</v>
+        <v>0.1002040195413333</v>
       </c>
       <c r="R12">
-        <v>0.0972890795210038</v>
+        <v>0.9018361758720002</v>
       </c>
       <c r="S12">
-        <v>0.01542630826304654</v>
+        <v>0.01171537292422311</v>
       </c>
       <c r="T12">
-        <v>0.01542630826304654</v>
+        <v>0.01899470783302338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.491805689528433</v>
+        <v>0.501448</v>
       </c>
       <c r="H13">
-        <v>0.491805689528433</v>
+        <v>1.504344</v>
       </c>
       <c r="I13">
-        <v>0.1747195879894478</v>
+        <v>0.1442262115682855</v>
       </c>
       <c r="J13">
-        <v>0.1747195879894478</v>
+        <v>0.1874478063528781</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>0.3374231809197307</v>
+        <v>0.370025499472</v>
       </c>
       <c r="R13">
-        <v>0.3374231809197307</v>
+        <v>2.220152996832</v>
       </c>
       <c r="S13">
-        <v>0.05350234609673472</v>
+        <v>0.04326160504966824</v>
       </c>
       <c r="T13">
-        <v>0.05350234609673472</v>
+        <v>0.04676143921445507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.03099008888835</v>
+        <v>0.570322</v>
       </c>
       <c r="H14">
-        <v>1.03099008888835</v>
+        <v>1.710966</v>
       </c>
       <c r="I14">
-        <v>0.3662710037464146</v>
+        <v>0.1640357154361922</v>
       </c>
       <c r="J14">
-        <v>0.3662710037464146</v>
+        <v>0.2131938063663353</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>0.7111918161984619</v>
+        <v>0.414220591185</v>
       </c>
       <c r="R14">
-        <v>0.7111918161984619</v>
+        <v>2.48532354711</v>
       </c>
       <c r="S14">
-        <v>0.1127676841516921</v>
+        <v>0.04842868300929504</v>
       </c>
       <c r="T14">
-        <v>0.1127676841516921</v>
+        <v>0.05234653023565128</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.03099008888835</v>
+        <v>0.570322</v>
       </c>
       <c r="H15">
-        <v>1.03099008888835</v>
+        <v>1.710966</v>
       </c>
       <c r="I15">
-        <v>0.3662710037464146</v>
+        <v>0.1640357154361922</v>
       </c>
       <c r="J15">
-        <v>0.3662710037464146</v>
+        <v>0.2131938063663353</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>0.3012612159151418</v>
+        <v>0.2328974523493333</v>
       </c>
       <c r="R15">
-        <v>0.3012612159151418</v>
+        <v>2.096077071144</v>
       </c>
       <c r="S15">
-        <v>0.04776844849687248</v>
+        <v>0.02722925207854008</v>
       </c>
       <c r="T15">
-        <v>0.04776844849687248</v>
+        <v>0.04414811983272071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.03099008888835</v>
+        <v>0.570322</v>
       </c>
       <c r="H16">
-        <v>1.03099008888835</v>
+        <v>1.710966</v>
       </c>
       <c r="I16">
-        <v>0.3662710037464146</v>
+        <v>0.1640357154361922</v>
       </c>
       <c r="J16">
-        <v>0.3662710037464146</v>
+        <v>0.2131938063663353</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>0.1054781974943096</v>
+        <v>0.06111095283666668</v>
       </c>
       <c r="R16">
-        <v>0.1054781974943096</v>
+        <v>0.5499985755300001</v>
       </c>
       <c r="S16">
-        <v>0.01672478758755693</v>
+        <v>0.007144799235731674</v>
       </c>
       <c r="T16">
-        <v>0.01672478758755693</v>
+        <v>0.0115842128873018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.03099008888835</v>
+        <v>0.570322</v>
       </c>
       <c r="H17">
-        <v>1.03099008888835</v>
+        <v>1.710966</v>
       </c>
       <c r="I17">
-        <v>0.3662710037464146</v>
+        <v>0.1640357154361922</v>
       </c>
       <c r="J17">
-        <v>0.3662710037464146</v>
+        <v>0.2131938063663353</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>0.2807265987546774</v>
+        <v>0.1599869175473333</v>
       </c>
       <c r="R17">
-        <v>0.2807265987546774</v>
+        <v>1.439882257926</v>
       </c>
       <c r="S17">
-        <v>0.04451244755678156</v>
+        <v>0.01870490236462827</v>
       </c>
       <c r="T17">
-        <v>0.04451244755678156</v>
+        <v>0.03032717419747893</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.03099008888835</v>
+        <v>0.570322</v>
       </c>
       <c r="H18">
-        <v>1.03099008888835</v>
+        <v>1.710966</v>
       </c>
       <c r="I18">
-        <v>0.3662710037464146</v>
+        <v>0.1640357154361922</v>
       </c>
       <c r="J18">
-        <v>0.3662710037464146</v>
+        <v>0.2131938063663353</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>0.2039506229368795</v>
+        <v>0.1139670650453333</v>
       </c>
       <c r="R18">
-        <v>0.2039506229368795</v>
+        <v>1.025703585408</v>
       </c>
       <c r="S18">
-        <v>0.03233872902647247</v>
+        <v>0.01332448213351887</v>
       </c>
       <c r="T18">
-        <v>0.03233872902647247</v>
+        <v>0.02160363539339186</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.570322</v>
+      </c>
+      <c r="H19">
+        <v>1.710966</v>
+      </c>
+      <c r="I19">
+        <v>0.1640357154361922</v>
+      </c>
+      <c r="J19">
+        <v>0.2131938063663353</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7379140000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.475828</v>
+      </c>
+      <c r="O19">
+        <v>0.29995660691112</v>
+      </c>
+      <c r="P19">
+        <v>0.2494637847424299</v>
+      </c>
+      <c r="Q19">
+        <v>0.420848588308</v>
+      </c>
+      <c r="R19">
+        <v>2.525091529848</v>
+      </c>
+      <c r="S19">
+        <v>0.04920359661447825</v>
+      </c>
+      <c r="T19">
+        <v>0.05318413381979076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0411935</v>
+      </c>
+      <c r="H20">
+        <v>2.082387</v>
+      </c>
+      <c r="I20">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J20">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7262925</v>
+      </c>
+      <c r="N20">
+        <v>1.452585</v>
+      </c>
+      <c r="O20">
+        <v>0.2952325527432663</v>
+      </c>
+      <c r="P20">
+        <v>0.2455349483544712</v>
+      </c>
+      <c r="Q20">
+        <v>0.7562110300987499</v>
+      </c>
+      <c r="R20">
+        <v>3.024844120395</v>
+      </c>
+      <c r="S20">
+        <v>0.08841256336392149</v>
+      </c>
+      <c r="T20">
+        <v>0.06371005271748659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0411935</v>
+      </c>
+      <c r="H21">
+        <v>2.082387</v>
+      </c>
+      <c r="I21">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J21">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4083613333333334</v>
+      </c>
+      <c r="N21">
+        <v>1.225084</v>
+      </c>
+      <c r="O21">
+        <v>0.1659958747772335</v>
+      </c>
+      <c r="P21">
+        <v>0.2070797486342548</v>
+      </c>
+      <c r="Q21">
+        <v>0.425183165918</v>
+      </c>
+      <c r="R21">
+        <v>2.551098995508</v>
+      </c>
+      <c r="S21">
+        <v>0.04971037462001714</v>
+      </c>
+      <c r="T21">
+        <v>0.05373190981825458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0411935</v>
+      </c>
+      <c r="H22">
+        <v>2.082387</v>
+      </c>
+      <c r="I22">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J22">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1071516666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.321455</v>
+      </c>
+      <c r="O22">
+        <v>0.04355636342203116</v>
+      </c>
+      <c r="P22">
+        <v>0.05433653577813798</v>
+      </c>
+      <c r="Q22">
+        <v>0.1115656188475</v>
+      </c>
+      <c r="R22">
+        <v>0.6693937130850001</v>
+      </c>
+      <c r="S22">
+        <v>0.01304371657247798</v>
+      </c>
+      <c r="T22">
+        <v>0.01409894429331134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0411935</v>
+      </c>
+      <c r="H23">
+        <v>2.082387</v>
+      </c>
+      <c r="I23">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J23">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2805203333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.841561</v>
+      </c>
+      <c r="O23">
+        <v>0.1140294497139816</v>
+      </c>
+      <c r="P23">
+        <v>0.1422516662860605</v>
+      </c>
+      <c r="Q23">
+        <v>0.2920759476845</v>
+      </c>
+      <c r="R23">
+        <v>1.752455686107</v>
+      </c>
+      <c r="S23">
+        <v>0.03414811766017371</v>
+      </c>
+      <c r="T23">
+        <v>0.03691067694832366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.03099008888835</v>
-      </c>
-      <c r="H19">
-        <v>1.03099008888835</v>
-      </c>
-      <c r="I19">
-        <v>0.3662710037464146</v>
-      </c>
-      <c r="J19">
-        <v>0.3662710037464146</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.686090437959895</v>
-      </c>
-      <c r="N19">
-        <v>0.686090437959895</v>
-      </c>
-      <c r="O19">
-        <v>0.3062183623050095</v>
-      </c>
-      <c r="P19">
-        <v>0.3062183623050095</v>
-      </c>
-      <c r="Q19">
-        <v>0.7073524416177192</v>
-      </c>
-      <c r="R19">
-        <v>0.7073524416177192</v>
-      </c>
-      <c r="S19">
-        <v>0.1121589069270391</v>
-      </c>
-      <c r="T19">
-        <v>0.1121589069270391</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0411935</v>
+      </c>
+      <c r="H24">
+        <v>2.082387</v>
+      </c>
+      <c r="I24">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J24">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1998293333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.599488</v>
+      </c>
+      <c r="O24">
+        <v>0.08122915243236724</v>
+      </c>
+      <c r="P24">
+        <v>0.1013333162046457</v>
+      </c>
+      <c r="Q24">
+        <v>0.208061002976</v>
+      </c>
+      <c r="R24">
+        <v>1.248366017856</v>
+      </c>
+      <c r="S24">
+        <v>0.02432549364794972</v>
+      </c>
+      <c r="T24">
+        <v>0.02629340939325451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0411935</v>
+      </c>
+      <c r="H25">
+        <v>2.082387</v>
+      </c>
+      <c r="I25">
+        <v>0.2994675300619877</v>
+      </c>
+      <c r="J25">
+        <v>0.2594744786616296</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7379140000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.475828</v>
+      </c>
+      <c r="O25">
+        <v>0.29995660691112</v>
+      </c>
+      <c r="P25">
+        <v>0.2494637847424299</v>
+      </c>
+      <c r="Q25">
+        <v>0.768311260359</v>
+      </c>
+      <c r="R25">
+        <v>3.073245041436</v>
+      </c>
+      <c r="S25">
+        <v>0.08982726419744767</v>
+      </c>
+      <c r="T25">
+        <v>0.06472948549099901</v>
       </c>
     </row>
   </sheetData>
